--- a/works/nettyServer/src/main/resources/excels/Quest.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Quest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -31,12 +31,18 @@
     <t>type</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>target</t>
   </si>
   <si>
     <t>preQuest</t>
   </si>
   <si>
+    <t>posQuest</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
@@ -47,9 +53,6 @@
   </si>
   <si>
     <t>欢迎来到大荒世界，请开始你的探险吧，请先将等级升至2级</t>
-  </si>
-  <si>
-    <t>level=2</t>
   </si>
 </sst>
 </file>
@@ -72,14 +75,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,19 +165,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -123,97 +217,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -224,25 +227,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,157 +395,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -415,6 +418,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,25 +457,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,42 +496,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -523,10 +526,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,16 +538,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,115 +556,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,15 +991,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,16 +1027,22 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1041,13 +1050,13 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
         <v>300</v>
       </c>
     </row>

--- a/works/nettyServer/src/main/resources/excels/Quest.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Quest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>欢迎来到大荒世界，请开始你的探险吧，请先将等级升至2级</t>
+  </si>
+  <si>
+    <t>[{"value":1}]</t>
   </si>
 </sst>
 </file>
@@ -60,10 +63,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,8 +77,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,68 +87,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,6 +108,67 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -173,7 +176,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,7 +184,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -194,29 +220,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -227,73 +230,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,109 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,41 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,23 +442,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,8 +477,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,10 +529,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -538,133 +541,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,7 +997,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -1050,8 +1053,8 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>2</v>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
       <c r="J2">
         <v>2</v>

--- a/works/nettyServer/src/main/resources/excels/Quest.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Quest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -56,6 +56,81 @@
   </si>
   <si>
     <t>[{"value":1}]</t>
+  </si>
+  <si>
+    <t>广结好友</t>
+  </si>
+  <si>
+    <t>找一个伙伴和你一起游历大荒吧</t>
+  </si>
+  <si>
+    <t>村里的灾难</t>
+  </si>
+  <si>
+    <t>野猪在村内横行祸害了不少人，请你杀十只野猪帮他们排忧解难吧</t>
+  </si>
+  <si>
+    <t>[{"id":1,"value":10}]</t>
+  </si>
+  <si>
+    <t>去找小贩谈谈</t>
+  </si>
+  <si>
+    <t>据说小贩什么都知道，去找他谈谈叭</t>
+  </si>
+  <si>
+    <t>[{"id":2,"value":1}]</t>
+  </si>
+  <si>
+    <t>神装之旅</t>
+  </si>
+  <si>
+    <t>游历大荒好的装备必不可少，快去搞来一件地穷铠叭</t>
+  </si>
+  <si>
+    <t>[{"id":5,"value":1}]</t>
+  </si>
+  <si>
+    <t>血洗大荒</t>
+  </si>
+  <si>
+    <t>得到神装你的战力有了很大的提升，快去试试自己的战斗力吧，请通关单人副本玉狐宫</t>
+  </si>
+  <si>
+    <t>[{"id":8,"value":1}]</t>
+  </si>
+  <si>
+    <t>组队游历</t>
+  </si>
+  <si>
+    <t>大荒危险重重，找一个小伙伴组队一起游历叭~</t>
+  </si>
+  <si>
+    <t>一群小伙伴</t>
+  </si>
+  <si>
+    <t>公会是一个庞大的组织，在这里你可以结识很多伙伴，快加入一个公会吧~</t>
+  </si>
+  <si>
+    <t>热血战斗</t>
+  </si>
+  <si>
+    <t>大荒其实是一个残酷的地方，强者生存，现在为了证明你的实力，去在pk中获得胜利叭！</t>
+  </si>
+  <si>
+    <t>学会交易</t>
+  </si>
+  <si>
+    <t>在这里你可以和旁边的人进行py交易哦</t>
+  </si>
+  <si>
+    <t>理财小达人</t>
+  </si>
+  <si>
+    <t>金币是个好东西，有钱能使鬼推磨，快来赚钱吧~</t>
+  </si>
+  <si>
+    <t>[{"value":2000}]</t>
   </si>
 </sst>
 </file>
@@ -64,9 +139,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -77,16 +152,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +190,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -115,7 +212,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,70 +220,40 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,18 +273,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -230,25 +305,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +413,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,49 +449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,91 +467,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,65 +496,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -502,7 +518,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +567,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -529,10 +604,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +616,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,13 +1069,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1053,6 +1128,9 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
@@ -1061,6 +1139,320 @@
       </c>
       <c r="K2">
         <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/works/nettyServer/src/main/resources/excels/Quest.xlsx
+++ b/works/nettyServer/src/main/resources/excels/Quest.xlsx
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
